--- a/Data/sgRNA/Figure5/N100_mixture_result/100NM_91/100NM91_plot.xlsx
+++ b/Data/sgRNA/Figure5/N100_mixture_result/100NM_91/100NM91_plot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17160"/>
+    <workbookView windowHeight="14460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="15">
   <si>
     <t>base_name</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>sgRNA2</t>
-  </si>
-  <si>
-    <t>High</t>
   </si>
 </sst>
 </file>
@@ -1066,8 +1063,8 @@
   <sheetPr/>
   <dimension ref="A1:L305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="I162" sqref="I162"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="D163" sqref="D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2085,7 +2082,7 @@
         <v>sgRNA1</v>
       </c>
       <c r="H35">
-        <f t="shared" ref="H35:H66" si="3">101-F35</f>
+        <f t="shared" ref="H35:H68" si="3">101-F35</f>
         <v>63</v>
       </c>
     </row>
@@ -3013,7 +3010,7 @@
         <v>sgRNA1</v>
       </c>
       <c r="H67">
-        <f>101-F67</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
     </row>
@@ -3042,7 +3039,7 @@
         <v>sgRNA1</v>
       </c>
       <c r="H68">
-        <f>101-F68</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
     </row>
@@ -4018,7 +4015,7 @@
         <v>sgRNA1</v>
       </c>
       <c r="H102">
-        <f t="shared" ref="H102:H133" si="12">F102</f>
+        <f t="shared" ref="H102:H135" si="12">F102</f>
         <v>37</v>
       </c>
     </row>
@@ -4941,7 +4938,7 @@
         <v>sgRNA1</v>
       </c>
       <c r="H134">
-        <f>F134</f>
+        <f t="shared" si="12"/>
         <v>71</v>
       </c>
     </row>
@@ -4970,7 +4967,7 @@
         <v>sgRNA1</v>
       </c>
       <c r="H135">
-        <f>F135</f>
+        <f t="shared" si="12"/>
         <v>72</v>
       </c>
     </row>
@@ -5114,19 +5111,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
-      <c r="A141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B141" s="2">
-        <v>3205.50860886337</v>
-      </c>
-      <c r="C141" s="2">
-        <v>190083.59</v>
-      </c>
-      <c r="D141" s="2">
-        <v>3.75054676092466</v>
-      </c>
+    <row r="141" spans="5:9">
       <c r="E141" t="str">
         <f t="shared" si="15"/>
         <v>3'</v>
@@ -5142,8 +5127,12 @@
         <f t="shared" si="14"/>
         <v>91</v>
       </c>
-    </row>
-    <row r="142" spans="1:8">
+      <c r="I141">
+        <f>B141-B140</f>
+        <v>-2900.46553454232</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="2"/>
       <c r="B142" s="2">
         <v>3564.5684885184</v>
@@ -5169,8 +5158,12 @@
         <f t="shared" si="14"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="143" spans="1:8">
+      <c r="I142">
+        <f>B142-B141</f>
+        <v>3564.5684885184</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="2" t="s">
         <v>10</v>
       </c>
@@ -5198,6 +5191,10 @@
         <f t="shared" si="14"/>
         <v>89</v>
       </c>
+      <c r="I143">
+        <f>B143-B142</f>
+        <v>306.02534372467</v>
+      </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="2" t="s">
@@ -5689,19 +5686,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
-      <c r="A161" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B161" s="2">
-        <v>3212.44153915913</v>
-      </c>
-      <c r="C161" s="2">
-        <v>265445.99</v>
-      </c>
-      <c r="D161" s="2">
-        <v>4.95167460199992</v>
-      </c>
+    <row r="161" spans="5:9">
       <c r="E161" t="s">
         <v>13</v>
       </c>
@@ -5722,9 +5707,7 @@
       </c>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A162" s="2"/>
       <c r="B162" s="2">
         <v>3517.48403243759</v>
       </c>
